--- a/biology/Botanique/Benoîte_des_ruisseaux/Benoîte_des_ruisseaux.xlsx
+++ b/biology/Botanique/Benoîte_des_ruisseaux/Benoîte_des_ruisseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEte_des_ruisseaux</t>
+          <t>Benoîte_des_ruisseaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geum rivale
 La benoîte des ruisseaux ou benoite des ruisseaux (Geum rivale) est une espèce de plantes à fleurs de la famille des Rosaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEte_des_ruisseaux</t>
+          <t>Benoîte_des_ruisseaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée  vivace.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEte_des_ruisseaux</t>
+          <t>Benoîte_des_ruisseaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies et bois humides, bords des ruisseaux et fossés à une altitude comprise entre 200 et 2 000 m, très rare en plaine, absente d'environ un tiers sud-ouest de la France.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beno%C3%AEte_des_ruisseaux</t>
+          <t>Benoîte_des_ruisseaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée dans les régions Basse-Normandie, Centre et Île-de-France (Article 1).
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beno%C3%AEte_des_ruisseaux</t>
+          <t>Benoîte_des_ruisseaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La benoîte des ruisseaux a des usages médicinaux similaires à la benoîte commune, bien que sa teneur en principes actifs soit plus faible[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La benoîte des ruisseaux a des usages médicinaux similaires à la benoîte commune, bien que sa teneur en principes actifs soit plus faible.
 </t>
         </is>
       </c>
